--- a/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
+++ b/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>193.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6515</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010572</t>
+          <t>005311</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
+          <t>万家经济新动能混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>28.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>99.23</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161122</t>
+          <t>161914</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
+          <t>万家创业板2年定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>18.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4277</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001791</t>
+          <t>005312</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成绝对收益策略混合A</t>
+          <t>万家经济新动能混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001792</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成绝对收益策略混合C</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009513</t>
+          <t>161122</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票A</t>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009514</t>
+          <t>001791</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票C</t>
+          <t>大成绝对收益策略混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161914</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合A</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>009513</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>创金合信同顺创业板精选股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005311</t>
+          <t>009514</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家经济新动能混合A</t>
+          <t>创金合信同顺创业板精选股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005312</t>
+          <t>001792</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>万家经济新动能混合C</t>
+          <t>大成绝对收益策略混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>010572</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -912,15 +1062,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>165.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>87.86</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.44</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -940,15 +1100,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.05</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.99</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>512290</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>国泰中证生物医药ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>33.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512290</t>
+          <t>005311</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证生物医药ETF</t>
+          <t>万家经济新动能混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2285</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>005312</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>万家经济新动能混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70.30</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161122</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010572</t>
+          <t>161122</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.44</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>163209</t>
+          <t>167506</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）A</t>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010356</t>
+          <t>163209</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）C</t>
+          <t>诺安创业板指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>92.10</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.62</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008838</t>
+          <t>167507</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>53.95</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008839</t>
+          <t>007613</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
+          <t>嘉合医疗健康混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>53.95</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>167506</t>
+          <t>008838</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+          <t>德邦量化对冲策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>167507</t>
+          <t>008839</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+          <t>德邦量化对冲策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005311</t>
+          <t>010572</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家经济新动能混合A</t>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1294,26 +1584,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005312</t>
+          <t>010356</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万家经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
+++ b/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1592,7 +1593,6 @@
           <t>诺安创业板指数增强（LOF）C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>92.10</t>
@@ -1608,6 +1608,632 @@
       </c>
       <c r="H16" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.8541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6623</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
+++ b/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2239,4 +2240,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8754</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
+++ b/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2524,4 +2525,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
+++ b/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2533,7 +2534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2544,17 +2545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2564,14 +2585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.02</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2580,14 +2623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.18</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2596,14 +2661,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.52</v>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2612,13 +2699,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
+++ b/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3046,7 +3047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,17 +3058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3077,14 +3098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.09</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3093,14 +3136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.02</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3109,14 +3174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.18</v>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3125,14 +3212,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.52</v>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3141,13 +3250,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
+++ b/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3635,7 +3636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3646,17 +3647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3666,14 +3687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.75</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3682,14 +3725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.09</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3698,14 +3763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.02</v>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3714,14 +3801,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.18</v>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7282</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3730,14 +3839,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.52</v>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4096</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3746,13 +3877,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
+++ b/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>11.5</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>15.09</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>13.02</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>17.18</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>17.52</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.51</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5210</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +1924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +2436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2374,632 +2713,6 @@
       </c>
       <c r="H7" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161903</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家行业优选混合 (LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>171.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>11.8541</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7405</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005311</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1871</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰中证生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9244</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005312</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6623</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2612</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161122</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2034</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>167506</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0895</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010908</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0876</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010909</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0576</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005248</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0515</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008184</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0285</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>167507</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>95.02</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010572</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3074,26 +2787,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>165.10</t>
+          <t>171.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>94.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12.2834</t>
+          <t>11.8541</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3112,26 +2825,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.42</t>
+          <t>22.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3919</t>
+          <t>1.7405</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3140,32 +2853,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512290</t>
+          <t>005311</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证生物医药ETF</t>
+          <t>万家经济新动能混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.58</t>
+          <t>17.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3600</t>
+          <t>1.1871</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3178,36 +2891,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005311</t>
+          <t>512290</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家经济新动能混合A</t>
+          <t>国泰中证生物医药ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.69</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2285</t>
+          <t>0.9244</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3226,26 +2939,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6836</t>
+          <t>0.6623</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3264,26 +2977,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2093</t>
+          <t>0.2612</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3302,22 +3015,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1989</t>
+          <t>0.2034</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3340,22 +3053,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0905</t>
+          <t>0.0895</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3368,36 +3081,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>163209</t>
+          <t>010908</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）A</t>
+          <t>大成沪深300指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0876</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -3406,36 +3119,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>167507</t>
+          <t>010909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+          <t>大成沪深300指数增强C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.0576</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3444,36 +3157,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>005248</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>新华沪深300指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>70.30</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -3482,36 +3195,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008838</t>
+          <t>008184</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
+          <t>新华沪深300指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>53.95</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0285</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3520,36 +3233,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008839</t>
+          <t>167507</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>53.95</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3558,36 +3271,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010572</t>
+          <t>501069</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>95.02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3596,29 +3309,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010356</t>
+          <t>010572</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）C</t>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3627,6 +3347,625 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>165.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2285</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
+++ b/数据整理/stocks/A股/创业板/300676-华大基因.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>7.49</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>15.09</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>13.02</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>17.18</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>17.52</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.51</v>
       </c>
     </row>
@@ -616,7 +633,803 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>193.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6515</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4277</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5715</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1336,7 +2149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1924,7 +2737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2436,7 +3249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2713,632 +3526,6 @@
       </c>
       <c r="H7" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161903</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家行业优选混合 (LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>171.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>11.8541</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7405</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005311</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1871</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰中证生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9244</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005312</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6623</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2612</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161122</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2034</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>167506</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0895</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010908</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0876</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010909</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0576</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005248</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0515</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008184</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0285</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>167507</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>95.02</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010572</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3413,26 +3600,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>165.10</t>
+          <t>171.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>94.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12.2834</t>
+          <t>11.8541</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3451,26 +3638,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.42</t>
+          <t>22.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3919</t>
+          <t>1.7405</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3479,32 +3666,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512290</t>
+          <t>005311</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证生物医药ETF</t>
+          <t>万家经济新动能混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.58</t>
+          <t>17.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3600</t>
+          <t>1.1871</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3517,36 +3704,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005311</t>
+          <t>512290</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家经济新动能混合A</t>
+          <t>国泰中证生物医药ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.69</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2285</t>
+          <t>0.9244</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3565,26 +3752,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6836</t>
+          <t>0.6623</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3603,26 +3790,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2093</t>
+          <t>0.2612</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3641,22 +3828,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1989</t>
+          <t>0.2034</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3679,22 +3866,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0905</t>
+          <t>0.0895</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3707,36 +3894,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>163209</t>
+          <t>010908</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）A</t>
+          <t>大成沪深300指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0876</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -3745,36 +3932,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>167507</t>
+          <t>010909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+          <t>大成沪深300指数增强C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.0576</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3783,36 +3970,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>005248</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>新华沪深300指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>70.30</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -3821,36 +4008,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008838</t>
+          <t>008184</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
+          <t>新华沪深300指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>53.95</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0285</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3859,36 +4046,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008839</t>
+          <t>167507</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>53.95</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3897,36 +4084,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010572</t>
+          <t>501069</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>95.02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3935,29 +4122,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010356</t>
+          <t>010572</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）C</t>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3971,53 +4165,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -4032,136 +4226,136 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>193.03</t>
+          <t>165.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>87.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.6515</t>
+          <t>12.2834</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>005311</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>万家经济新动能混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7135</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>41.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6848</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.86</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4277</t>
+          <t>1.2285</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -4169,7 +4363,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -4189,25 +4383,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5203</t>
+          <t>0.6836</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -4227,17 +4421,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1983</t>
+          <t>0.2093</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -4245,7 +4439,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -4260,22 +4454,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1795</t>
+          <t>0.1989</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -4283,234 +4477,303 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001791</t>
+          <t>167506</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成绝对收益策略混合A</t>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0808</t>
+          <t>0.0905</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>163209</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>诺安创业板指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0337</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009513</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信同顺创业板精选股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.46</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009514</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>创金合信同顺创业板精选股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.46</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001792</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成绝对收益策略混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010572</t>
+          <t>008839</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
+          <t>德邦量化对冲策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>53.95</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>